--- a/tables/1974/Table 15.xlsx
+++ b/tables/1974/Table 15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emberu\Desktop\Cassava\1974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAdetuyi\OneDrive - CGIAR\WORK\MR PRASAD\2022\7. August\Annual Report\New_Tables\1974\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Table 15.     Effect of stem number on stem, root and leaf dry weights at 5 and 6 months.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Stem no.</t>
   </si>
@@ -36,33 +32,44 @@
     <t>Stem</t>
   </si>
   <si>
-    <t>Leaf</t>
-  </si>
-  <si>
     <t>Root</t>
   </si>
   <si>
-    <t>5 months</t>
-  </si>
-  <si>
     <t>Dry weights, g/plant</t>
   </si>
   <si>
-    <t>6 months</t>
-  </si>
-  <si>
     <t>&gt;4</t>
   </si>
   <si>
     <t>LSD 0.05</t>
+  </si>
+  <si>
+    <t>Table Name:</t>
+  </si>
+  <si>
+    <t>Effect of stem number on stem, root and leaf dry weights at 5 and 6 months.</t>
+  </si>
+  <si>
+    <t>5 months Leaf</t>
+  </si>
+  <si>
+    <t>6 months Leaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -86,16 +93,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -381,186 +534,180 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>114</v>
-      </c>
-      <c r="C4">
-        <v>64</v>
-      </c>
-      <c r="D4">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>196</v>
-      </c>
-      <c r="F4">
-        <v>96</v>
-      </c>
-      <c r="G4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>125</v>
-      </c>
-      <c r="C5">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>131</v>
-      </c>
-      <c r="E5">
-        <v>148</v>
-      </c>
-      <c r="F5">
-        <v>69</v>
-      </c>
-      <c r="G5">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>105</v>
-      </c>
-      <c r="C6">
-        <v>74</v>
-      </c>
-      <c r="D6">
-        <v>158</v>
-      </c>
-      <c r="E6">
-        <v>162</v>
-      </c>
-      <c r="F6">
-        <v>80</v>
-      </c>
-      <c r="G6">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>89</v>
-      </c>
-      <c r="D7">
-        <v>116</v>
-      </c>
-      <c r="E7">
-        <v>128</v>
-      </c>
-      <c r="F7">
-        <v>66</v>
-      </c>
-      <c r="G7">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>54</v>
-      </c>
-      <c r="E8">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1">
+        <v>196</v>
+      </c>
+      <c r="F4" s="1">
+        <v>96</v>
+      </c>
+      <c r="G4" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>125</v>
+      </c>
+      <c r="C5" s="3">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3">
+        <v>131</v>
+      </c>
+      <c r="E5" s="3">
+        <v>148</v>
+      </c>
+      <c r="F5" s="3">
+        <v>69</v>
+      </c>
+      <c r="G5" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3">
+        <v>158</v>
+      </c>
+      <c r="E6" s="3">
+        <v>162</v>
+      </c>
+      <c r="F6" s="3">
+        <v>80</v>
+      </c>
+      <c r="G6" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>87</v>
+      </c>
+      <c r="C7" s="3">
+        <v>89</v>
+      </c>
+      <c r="D7" s="3">
+        <v>116</v>
+      </c>
+      <c r="E7" s="3">
+        <v>128</v>
+      </c>
+      <c r="F7" s="3">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>